--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1868197.339924011</v>
+        <v>1972376.974375083</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283176</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9975904.321399322</v>
+        <v>9975904.32139932</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>147.1242606483401</v>
       </c>
       <c r="E2" t="n">
-        <v>35.99852294946876</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -826,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>100.336171018217</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -868,7 +870,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>43.51522928004346</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>70.9556147961612</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -950,7 +952,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>241.6499314317624</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>27.44338207142007</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>112.7951350776574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>72.33270390033967</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>295.4261305984815</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>94.41743113184259</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>176.2607257553324</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1531,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>36.21070476472622</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1588,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>113.0992099793456</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572454081</v>
       </c>
       <c r="W16" t="n">
-        <v>174.7683347992642</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701328</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2002,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986248</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>22.0465888205291</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>93.05052491173879</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,10 +2143,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>105.6507867899574</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>176.7621441121362</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2324,13 +2326,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>138.2893995353463</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>279.2461499633806</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>97.98413062224057</v>
       </c>
       <c r="H28" t="n">
-        <v>106.1798850986051</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>57.82449082152367</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>79.75167225698537</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>63.34420421319582</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>125.2193560244679</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>15.51491006411167</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,7 +3435,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>198.4943254374923</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>108.3764982651495</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>178.2798710842933</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>41.02686156550217</v>
       </c>
       <c r="I43" t="n">
-        <v>35.8864194913564</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,10 +4143,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>35.99871774582764</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>32.27552175740387</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.741330469123</v>
+        <v>1749.723851760223</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.778813528712</v>
+        <v>1380.761334819811</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.513114921961</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794325</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.341170533245</v>
+        <v>2139.863183736034</v>
       </c>
       <c r="Y2" t="n">
-        <v>2382.341170533245</v>
+        <v>1749.723851760223</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.1533772316425</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>563.2171943037356</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>413.1005548913998</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>265.1874613090067</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4516,22 +4518,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V4" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.594421205412</v>
+        <v>1356.361036635886</v>
       </c>
       <c r="X4" t="n">
-        <v>1134.594421205412</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="Y4" t="n">
-        <v>913.8018420618822</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.53911114974</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.53911114974</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1274.53911114974</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>888.7508585514956</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>477.7649537618881</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4568,7 +4570,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4598,19 +4600,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2765.246565690425</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213862</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>480.6870701241381</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="C7" t="n">
-        <v>311.7508871962312</v>
+        <v>505.4784049721907</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765777</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W7" t="n">
-        <v>1004.259565728817</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X7" t="n">
-        <v>776.2700148307995</v>
+        <v>674.4145879000976</v>
       </c>
       <c r="Y7" t="n">
-        <v>662.3355349543779</v>
+        <v>674.4145879000976</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1619.798686923957</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1250.836169983545</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>892.5704713767946</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3142.251815863195</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2811.188928519624</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176917</v>
+        <v>2811.188928519624</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915838</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="Y8" t="n">
-        <v>2006.398526988078</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2140.376416027263</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="C10" t="n">
-        <v>1971.440233099356</v>
+        <v>678.4618728343355</v>
       </c>
       <c r="D10" t="n">
-        <v>1876.069090541939</v>
+        <v>528.3452334219998</v>
       </c>
       <c r="E10" t="n">
-        <v>1876.069090541939</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>1876.069090541939</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>1708.366253916658</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>1562.149067134516</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>3133.919937435997</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>2912.153322005523</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>2623.050455131167</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V10" t="n">
-        <v>2368.36596692528</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W10" t="n">
-        <v>2368.36596692528</v>
+        <v>1258.944053934704</v>
       </c>
       <c r="X10" t="n">
-        <v>2140.376416027263</v>
+        <v>1080.902916808105</v>
       </c>
       <c r="Y10" t="n">
-        <v>2140.376416027263</v>
+        <v>860.1103376645752</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2102.574735228845</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.502065570315</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424082</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>526.5658826424082</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>526.5658826424082</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>379.6759351444978</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>212.4798358593777</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5203,46 +5205,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797782</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.38585385471</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648823</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611863</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138452</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.502065570315</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5431,46 +5433,46 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797781</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855609</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>2160.315914855609</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V16" t="n">
-        <v>1905.631426649722</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
         <v>1729.097755135313</v>
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615664</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334537</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673286</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.54608366783</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694715</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740623</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>2231.588527385789</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>2233.355914590556</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118211</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>2716.927329289431</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913854</v>
+        <v>3212.25293550519</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>3809.631423131741</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>3997.308687575529</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>3997.308687575529</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>4420.931837070597</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445479</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301204</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022978</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566163</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.23547033442</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606219</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400686</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635732</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.843151638089</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101851</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>572.9069687101851</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>424.993875127792</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279795</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853353</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580253</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832655</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487559</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510501</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1883.470651306724</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1628.786163100837</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1339.368993063876</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611859</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683287</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="20">
@@ -5744,13 +5746,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5759,34 +5761,34 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913447</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2715.159942084667</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>2715.159942084667</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M21" t="n">
-        <v>3312.538429711219</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N21" t="n">
-        <v>3940.136393265826</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>4492.046123505113</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>4492.046123505113</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5902,46 +5904,46 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782918</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038303</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797704</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="V22" t="n">
         <v>2018.514925172274</v>
@@ -5966,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6002,34 +6004,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>809.0422355233313</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C25" t="n">
-        <v>640.1060525954244</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D25" t="n">
-        <v>489.9894131830887</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1218.680251251588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>990.6907003535711</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6315,16 +6317,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.2946447138415</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3584617859347</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2418223735989</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E28" t="n">
-        <v>597.2418223735989</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="F28" t="n">
-        <v>450.3518748756885</v>
+        <v>274.8772357154528</v>
       </c>
       <c r="G28" t="n">
-        <v>283.1557755905685</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138415</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6452,58 +6454,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2233.355914590559</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2383.002557118214</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2716.927329289435</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L30" t="n">
-        <v>3212.252935505193</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M30" t="n">
-        <v>3809.631423131745</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>4437.229386686352</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>4437.229386686352</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>870.3164745246301</v>
+        <v>988.1395539230172</v>
       </c>
       <c r="C31" t="n">
-        <v>701.3802915967232</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>551.2636521843874</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>403.3505586019943</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>256.4606111040839</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.7575184984</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.96493935487</v>
+        <v>1169.788018753257</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,22 +6718,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6783,22 +6785,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>949.9304447718132</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3175.34112979674</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C34" t="n">
-        <v>3006.404946868833</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D34" t="n">
-        <v>2856.288307456497</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E34" t="n">
-        <v>2708.375213874104</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2561.485266376194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328842</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.25592267304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>3932.25592267304</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>3805.771724668527</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>3577.782173770509</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>3356.989594626979</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K36" t="n">
-        <v>542.9134462654469</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>945.4026036630049</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630049</v>
+        <v>782.8410298377091</v>
       </c>
     </row>
     <row r="38">
@@ -7160,28 +7162,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7214,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,22 +7256,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622266</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3737171343197</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934014</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892466</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>417.9651836029407</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>913.2907898186995</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373306</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1052.829365488568</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C43" t="n">
-        <v>883.8931825606608</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D43" t="n">
-        <v>733.776543148325</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E43" t="n">
-        <v>585.8634495659319</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F43" t="n">
-        <v>438.9735020680215</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G43" t="n">
-        <v>271.7774027829014</v>
+        <v>135.2579373565599</v>
       </c>
       <c r="H43" t="n">
-        <v>130.0655716250996</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>2227.361618603202</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
-        <v>1972.677130397315</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W43" t="n">
-        <v>1683.259960360355</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X43" t="n">
-        <v>1455.270409462337</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y43" t="n">
-        <v>1234.477830318807</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7734,19 +7736,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>988.1395539230176</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C46" t="n">
-        <v>819.2033709951107</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D46" t="n">
-        <v>669.086731582775</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E46" t="n">
-        <v>521.1736380003819</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>2414.36154645157</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V46" t="n">
-        <v>1907.987318831765</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W46" t="n">
-        <v>1618.570148794805</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X46" t="n">
-        <v>1390.580597896787</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y46" t="n">
-        <v>1169.788018753257</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
   </sheetData>
@@ -23419,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>104.0840080814976</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>112.6104454096916</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23704,16 +23706,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="W16" t="n">
-        <v>111.7546635373268</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>123.3744592024021</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>193.1339494775054</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24175,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>180.5336875992868</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>75.37549921169179</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>7.276848373210441</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>67.54000767002827</v>
       </c>
       <c r="H28" t="n">
-        <v>34.11482774761876</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>109.4223302771042</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>85.77246603528347</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>85.27126880501653</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>161.3036423121231</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>151.7319110345162</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>20.09032791460254</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>40.23897475306285</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>73.85777223953465</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>99.26785128072171</v>
       </c>
       <c r="I43" t="n">
-        <v>45.37941682720912</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26029,10 +26031,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>109.4223302771036</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>148.7507642442407</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859092.8650097407</v>
+        <v>859092.8650097406</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097402</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859092.8650097406</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097406</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097406</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>859092.8650097406</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="15">
@@ -26317,43 +26319,43 @@
         <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="H2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="F2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="K2" t="n">
         <v>565002.6197830046</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830047</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316938</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="C4" t="n">
         <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26479,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-953523.4023371566</v>
+        <v>-953523.4023371567</v>
       </c>
       <c r="C6" t="n">
         <v>375221.3433904358</v>
       </c>
       <c r="D6" t="n">
-        <v>375221.3433904359</v>
+        <v>375221.3433904357</v>
       </c>
       <c r="E6" t="n">
         <v>126080.7079699239</v>
       </c>
       <c r="F6" t="n">
-        <v>451493.1697772795</v>
+        <v>451493.1697772794</v>
       </c>
       <c r="G6" t="n">
-        <v>451493.1697772795</v>
+        <v>451493.1697772798</v>
       </c>
       <c r="H6" t="n">
-        <v>451493.1697772793</v>
+        <v>451493.1697772791</v>
       </c>
       <c r="I6" t="n">
-        <v>451493.1697772793</v>
+        <v>451493.1697772791</v>
       </c>
       <c r="J6" t="n">
-        <v>233961.9673800017</v>
+        <v>233961.9673800014</v>
       </c>
       <c r="K6" t="n">
-        <v>451493.1697772795</v>
+        <v>451493.1697772794</v>
       </c>
       <c r="L6" t="n">
         <v>451493.1697772792</v>
       </c>
       <c r="M6" t="n">
-        <v>366438.1418417674</v>
+        <v>366438.1418417671</v>
       </c>
       <c r="N6" t="n">
+        <v>451493.1697772791</v>
+      </c>
+      <c r="O6" t="n">
         <v>451493.1697772793</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>451493.1697772792</v>
-      </c>
-      <c r="P6" t="n">
-        <v>451493.1697772791</v>
       </c>
     </row>
   </sheetData>
@@ -26750,7 +26752,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>207.5587809723429</v>
       </c>
       <c r="E2" t="n">
-        <v>345.931847122793</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>45.08487700471429</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>182.1944261089937</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9661108572923</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>9.345240527139595</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>121.1720909467923</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>105.7895182744374</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>178.6624680585623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>90.81180805757208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>54.19804188636977</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>49.44892963370472</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28621,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28758,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-4.69252986170444e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28861,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -28980,7 +28982,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -31835,10 +31837,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
@@ -31850,13 +31852,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>403.852496713802</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>353.3934907042769</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496626</v>
+        <v>302.5540177178169</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709973</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>340.7767527663053</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>355.4083096598243</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>595.327537312171</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>154.5219885631782</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>514.8598010172136</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>182.7118610708585</v>
       </c>
       <c r="K36" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>312.3207226334973</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>558.3177848342789</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34237,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>379.4203056753698</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>219.4190832899467</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35571,7 +35573,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.342014319135</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010452</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663293</v>
+        <v>171.2123056344836</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191349</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>189.572994387664</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060383</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>200.7949786802838</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326294939</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9858252288377</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>20.54758114884798</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>376.3054212373395</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>55.8742344041918</v>
       </c>
       <c r="K36" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>174.4792836591384</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>237.2862717533515</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1972376.974375083</v>
+        <v>1968364.364361089</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>147.1242606483401</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952951</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>18.1222401393177</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>43.51522928004346</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>166.9920602376567</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.6499314317624</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>27.44338207142007</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>47.41254713315928</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>109.6870817625081</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>72.33270390033967</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>2.398536716038562</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>176.2607257553324</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>109.723488288731</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>113.0992099793456</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>130.3963959210117</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,10 +1776,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1815,16 +1815,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701328</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>62.14989839348819</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>93.05052491173879</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2292,13 +2292,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>176.7621441121362</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>138.2893995353463</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>97.98413062224057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>2.26848612580527</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>57.82449082152367</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>63.34420421319582</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>198.4943254374923</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,16 +3720,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>178.2798710842933</v>
+        <v>191.9440058362632</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>41.02686156550217</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>32.27552175740387</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.723851760223</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1380.761334819811</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W2" t="n">
-        <v>2513.328941997114</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X2" t="n">
-        <v>2139.863183736034</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.723851760223</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>182.143086683856</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>182.143086683856</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>182.143086683856</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>182.143086683856</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>182.143086683856</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>182.143086683856</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4521,19 +4521,19 @@
         <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>1645.778206672847</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W4" t="n">
-        <v>1356.361036635886</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X4" t="n">
-        <v>1312.406259585337</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y4" t="n">
-        <v>1091.613680441807</v>
+        <v>363.7915515140957</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2144.883770458459</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2765.246565690425</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2434.183678346854</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2434.183678346854</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2434.183678346854</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2531.483610522581</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>674.4145879000976</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>505.4784049721907</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1191.821308835076</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>902.4041387981149</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>674.4145879000976</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>674.4145879000976</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>985.1133520179762</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>599.3250994197319</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>188.3391946301244</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>177.3071485155249</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3142.251815863195</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2811.188928519624</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2811.188928519624</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.723170258544</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.583838282732</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158134</v>
@@ -4904,7 +4904,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
         <v>2564.909189125857</v>
@@ -4913,16 +4913,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>678.4618728343355</v>
+        <v>850.4935808376455</v>
       </c>
       <c r="C10" t="n">
-        <v>678.4618728343355</v>
+        <v>681.5573979097386</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219998</v>
+        <v>531.4407584974028</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>383.5276649150097</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>236.6377174170994</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>68.93488079181833</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="V10" t="n">
-        <v>1548.361223971664</v>
+        <v>1480.924175709433</v>
       </c>
       <c r="W10" t="n">
-        <v>1258.944053934704</v>
+        <v>1480.924175709433</v>
       </c>
       <c r="X10" t="n">
-        <v>1080.902916808105</v>
+        <v>1252.934624811415</v>
       </c>
       <c r="Y10" t="n">
-        <v>860.1103376645752</v>
+        <v>1032.142045667885</v>
       </c>
     </row>
     <row r="11">
@@ -5032,37 +5032,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.70136564882</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X13" t="n">
-        <v>1319.459739407056</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263526</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="14">
@@ -5269,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5506,16 +5506,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5530,34 +5530,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615664</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334537</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673286</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.54608366783</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694715</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740623</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385789</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590556</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2383.002557118211</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2716.927329289431</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>3212.25293550519</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3809.631423131741</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3997.308687575529</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575529</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070597</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445479</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398592</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301204</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022978</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566163</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.23547033442</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606219</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400686</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635732</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279795</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853353</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580253</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832655</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487559</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510501</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1883.470651306724</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1628.786163100837</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1339.368993063876</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1111.379442165859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,25 +5746,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782918</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038303</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797704</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487563</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2197.062545487563</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5974,19 +5974,19 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>555.8158034133954</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8431516380886</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C28" t="n">
-        <v>572.9069687101817</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D28" t="n">
-        <v>422.7903292978459</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>274.8772357154528</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>274.8772357154528</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683283</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>988.1395539230172</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.987318831765</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1618.570148794804</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.580597896787</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1169.788018753257</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>696.7084350851671</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -7016,22 +7016,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>150.8995423128889</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>782.8410298377091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>782.8410298377091</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1508.305175991783</v>
+        <v>1561.54872342426</v>
       </c>
       <c r="W40" t="n">
-        <v>1508.305175991783</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.315625093766</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395904</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>302.45403664168</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>135.2579373565599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2414.36154645157</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2414.36154645157</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>142.414155035097</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>112.6104454096916</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>49.43558426092557</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>86.46557462472416</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>193.1339494775054</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>75.37549921169179</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>41.54258064659095</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>67.54000767002827</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>283.9159882634389</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>109.4223302771042</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>85.27126880501653</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.09032791460254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>73.85777223953465</v>
+        <v>60.19363748756484</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>99.26785128072171</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>148.7507642442407</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>859092.8650097406</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859092.8650097406</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>859092.8650097402</v>
+        <v>859092.8650097406</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097406</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>859092.8650097406</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859092.8650097406</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>859092.8650097406</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>859092.8650097406</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>859092.8650097406</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="G2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="J2" t="n">
-        <v>565002.6197830042</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>565002.6197830043</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-953523.4023371567</v>
+        <v>-953523.4023371568</v>
       </c>
       <c r="C6" t="n">
         <v>375221.3433904358</v>
@@ -26530,40 +26530,40 @@
         <v>375221.3433904357</v>
       </c>
       <c r="E6" t="n">
-        <v>126080.7079699239</v>
+        <v>125733.3287155672</v>
       </c>
       <c r="F6" t="n">
-        <v>451493.1697772794</v>
+        <v>451145.7905229225</v>
       </c>
       <c r="G6" t="n">
-        <v>451493.1697772798</v>
+        <v>451145.7905229225</v>
       </c>
       <c r="H6" t="n">
-        <v>451493.1697772791</v>
+        <v>451145.7905229222</v>
       </c>
       <c r="I6" t="n">
-        <v>451493.1697772791</v>
+        <v>451145.7905229222</v>
       </c>
       <c r="J6" t="n">
-        <v>233961.9673800014</v>
+        <v>233614.5881256447</v>
       </c>
       <c r="K6" t="n">
-        <v>451493.1697772794</v>
+        <v>451145.7905229222</v>
       </c>
       <c r="L6" t="n">
-        <v>451493.1697772792</v>
+        <v>451145.7905229224</v>
       </c>
       <c r="M6" t="n">
-        <v>366438.1418417671</v>
+        <v>366090.7625874104</v>
       </c>
       <c r="N6" t="n">
-        <v>451493.1697772791</v>
+        <v>451145.7905229222</v>
       </c>
       <c r="O6" t="n">
-        <v>451493.1697772793</v>
+        <v>451145.7905229221</v>
       </c>
       <c r="P6" t="n">
-        <v>451493.1697772792</v>
+        <v>451145.7905229221</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26752,7 +26752,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>207.5587809723429</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>158.5207149607585</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>126.6327747750031</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>182.1944261089937</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>198.2808315333509</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>9.345240527139595</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>121.1720909467923</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>184.9206826248123</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,13 +27909,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>178.6624680585623</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3564781982822</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>49.44892963370472</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28760,7 +28760,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>-4.69252986170444e-12</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -28982,7 +28982,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>403.852496713802</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,22 +32083,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>320.9147064709973</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,28 +32785,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>355.4083096598243</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>569.57231719539</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,28 +33259,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,10 +33508,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33736,7 +33736,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>182.7118610708585</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33745,16 +33745,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>272.5107846304687</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>189.572994387664</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060383</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326294939</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>213.2742757378061</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>426.9760727509455</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,10 +37156,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>55.8742344041918</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37393,16 +37393,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1968364.364361089</v>
+        <v>1970124.894663875</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9975904.32139932</v>
+        <v>9975904.321399322</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>131.6288405190995</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>227.7172236952951</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>18.1222401393177</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744755</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>166.9920602376567</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>301.7248287451634</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>252.7233649914537</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>47.41254713315928</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>361.1790324289706</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>109.6870817625081</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>2.398536716038562</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>142.6955872305738</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>109.723488288731</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609216</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.3963959210117</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>113.5413580759696</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D19" t="n">
-        <v>62.14989839348819</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>59.96838802184498</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>2.26848612580527</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>117.4665281367401</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>111.3062202753125</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>71.22475183604973</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>191.9440058362632</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1811.579746109088</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1811.579746109088</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1453.314047502337</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1067.525794904093</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>656.5398901144854</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>241.4674399594819</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X2" t="n">
-        <v>2961.784676410102</v>
+        <v>2588.318918149021</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2198.179586173209</v>
       </c>
     </row>
     <row r="3">
@@ -4400,22 +4400,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.143086683856</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C4" t="n">
-        <v>182.143086683856</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D4" t="n">
-        <v>182.143086683856</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>182.143086683856</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>182.143086683856</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>182.143086683856</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W4" t="n">
-        <v>812.5736815556431</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X4" t="n">
-        <v>584.5841306576258</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>363.7915515140957</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2144.883770458459</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4579,7 +4579,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.483610522581</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="Y5" t="n">
-        <v>2531.483610522581</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,10 +4649,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4725,16 +4725,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1672.018421834499</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1417.333933628612</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1127.916763591651</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.341567565138</v>
+        <v>1878.169188758594</v>
       </c>
       <c r="C8" t="n">
-        <v>1343.379050624727</v>
+        <v>1509.206671818182</v>
       </c>
       <c r="D8" t="n">
-        <v>985.1133520179762</v>
+        <v>1150.940973211432</v>
       </c>
       <c r="E8" t="n">
-        <v>599.3250994197319</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>188.3391946301244</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>177.3071485155249</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
         <v>66.51211643218342</v>
@@ -4807,13 +4807,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866152</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605072</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.94140762926</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>850.4935808376455</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>681.5573979097386</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>531.4407584974028</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>383.5276649150097</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>236.6377174170994</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>68.93488079181833</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.60866391532</v>
+        <v>1783.157591289933</v>
       </c>
       <c r="U10" t="n">
-        <v>1735.60866391532</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="V10" t="n">
-        <v>1480.924175709433</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="W10" t="n">
-        <v>1480.924175709433</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X10" t="n">
-        <v>1252.934624811415</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>1032.142045667885</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5035,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.7519863413023</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133954</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1355.182581213089</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X13" t="n">
-        <v>1127.193030315072</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>906.400451171542</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="14">
@@ -5272,13 +5272,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.5811134804959</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C16" t="n">
-        <v>615.644930552589</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="17">
@@ -5515,28 +5515,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>695.5020655703109</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5971,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6080,10 +6080,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6126,16 +6126,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,37 +6147,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
         <v>1746.193029533436</v>
@@ -6214,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.6374272687975</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408906</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.169680383432</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.485192177545</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W28" t="n">
-        <v>1431.068022140585</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X28" t="n">
-        <v>1203.078471242567</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.2858920990373</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2418223735989</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>149.8982754122182</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6928,40 +6928,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1023.721406539404</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>854.7852236114967</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>704.6685841991609</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>556.7554906167678</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1205.369871369643</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,16 +7195,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1561.54872342426</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1272.131553387299</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-6.490791196319352e-13</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856136</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>142.414155035097</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>211.9838267404988</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.43558426092557</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>32.89260457059957</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D19" t="n">
-        <v>86.46557462472416</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>283.9159882634389</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>134.6711151870879</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>35.12774237125667</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>74.19629618688151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>60.19363748756484</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097406</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097406</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>859092.8650097406</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>859092.8650097406</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>859092.8650097405</v>
+        <v>859092.8650097403</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>859092.8650097403</v>
+        <v>859092.8650097405</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049983</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049984</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049985</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049985</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049986</v>
-      </c>
       <c r="E2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830044</v>
@@ -26337,10 +26337,10 @@
         <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830045</v>
@@ -26352,10 +26352,10 @@
         <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551146</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.080258466070518e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>91573.95495316948</v>
+      </c>
+      <c r="C4" t="n">
+        <v>91573.95495316946</v>
+      </c>
+      <c r="D4" t="n">
         <v>91573.95495316942</v>
-      </c>
-      <c r="C4" t="n">
-        <v>91573.95495316942</v>
-      </c>
-      <c r="D4" t="n">
-        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26438,7 +26438,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
@@ -26450,7 +26450,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181821</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-953523.4023371568</v>
+        <v>-953523.4023371566</v>
       </c>
       <c r="C6" t="n">
-        <v>375221.3433904358</v>
+        <v>375221.3433904357</v>
       </c>
       <c r="D6" t="n">
-        <v>375221.3433904357</v>
+        <v>375221.3433904356</v>
       </c>
       <c r="E6" t="n">
-        <v>125733.3287155672</v>
+        <v>126045.9700444879</v>
       </c>
       <c r="F6" t="n">
-        <v>451145.7905229225</v>
+        <v>451458.431851844</v>
       </c>
       <c r="G6" t="n">
-        <v>451145.7905229225</v>
+        <v>451458.4318518436</v>
       </c>
       <c r="H6" t="n">
-        <v>451145.7905229222</v>
+        <v>451458.4318518435</v>
       </c>
       <c r="I6" t="n">
-        <v>451145.7905229222</v>
+        <v>451458.4318518435</v>
       </c>
       <c r="J6" t="n">
-        <v>233614.5881256447</v>
+        <v>233927.2294545663</v>
       </c>
       <c r="K6" t="n">
-        <v>451145.7905229222</v>
+        <v>451458.4318518436</v>
       </c>
       <c r="L6" t="n">
-        <v>451145.7905229224</v>
+        <v>451458.4318518436</v>
       </c>
       <c r="M6" t="n">
-        <v>366090.7625874104</v>
+        <v>366403.403916332</v>
       </c>
       <c r="N6" t="n">
-        <v>451145.7905229222</v>
+        <v>451458.4318518435</v>
       </c>
       <c r="O6" t="n">
-        <v>451145.7905229221</v>
+        <v>451458.4318518433</v>
       </c>
       <c r="P6" t="n">
-        <v>451145.7905229221</v>
+        <v>451458.4318518436</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>162.978923868221</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>158.5207149607585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>126.6327747750031</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>198.2808315333509</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>47.51613997224956</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>33.48847321415917</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>20.75133764329121</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>184.9206826248123</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3564781982822</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>76.85336204559542</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28268,7 +28268,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,22 +33736,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
